--- a/python/크롤링 유료/01 네이버증권뉴스/keyword_analysis_골프스윙.xlsx
+++ b/python/크롤링 유료/01 네이버증권뉴스/keyword_analysis_골프스윙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\prog_dev_exam\python\크롤링 유료\01 네이버증권뉴스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882CCA9A-B34E-4D6F-9371-5C970612EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A16580-AC90-43AA-AAB1-945A72D799B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,460 +64,461 @@
     <t>동남아골프</t>
   </si>
   <si>
+    <t>골프캠프</t>
+  </si>
+  <si>
+    <t>저렴한골프장</t>
+  </si>
+  <si>
+    <t>골프전지훈련</t>
+  </si>
+  <si>
+    <t>포화도 80%</t>
+  </si>
+  <si>
+    <t>골프필드레슨</t>
+  </si>
+  <si>
+    <t>골프장가격</t>
+  </si>
+  <si>
+    <t>100%+</t>
+  </si>
+  <si>
+    <t>과포화 (0일 경과)</t>
+  </si>
+  <si>
+    <t>골프타석매트</t>
+  </si>
+  <si>
+    <t>포화도 90%</t>
+  </si>
+  <si>
+    <t>퍼팅레슨</t>
+  </si>
+  <si>
+    <t>골프모임</t>
+  </si>
+  <si>
+    <t>강남골프레슨</t>
+  </si>
+  <si>
+    <t>골프연습기구</t>
+  </si>
+  <si>
+    <t>골프스윙궤도</t>
+  </si>
+  <si>
+    <t>티칭프로</t>
+  </si>
+  <si>
+    <t>광화문골프</t>
+  </si>
+  <si>
+    <t>골프레슨비</t>
+  </si>
+  <si>
+    <t>포화도 40%</t>
+  </si>
+  <si>
+    <t>골프학과</t>
+  </si>
+  <si>
+    <t>영재골프연습장</t>
+  </si>
+  <si>
+    <t>포화도 10%</t>
+  </si>
+  <si>
+    <t>그린피저렴한골프장</t>
+  </si>
+  <si>
+    <t>골프스윙분석기</t>
+  </si>
+  <si>
+    <t>골프사관학교</t>
+  </si>
+  <si>
+    <t>드라이버스윙궤도</t>
+  </si>
+  <si>
+    <t>골프체중이동</t>
+  </si>
+  <si>
+    <t>주니어골프</t>
+  </si>
+  <si>
+    <t>골프스윙연습도구</t>
+  </si>
+  <si>
+    <t>포화도 30%</t>
+  </si>
+  <si>
+    <t>골프자세교정기</t>
+  </si>
+  <si>
+    <t>잠실골프</t>
+  </si>
+  <si>
+    <t>키즈골프</t>
+  </si>
+  <si>
+    <t>강남골프연습장</t>
+  </si>
+  <si>
+    <t>골프존GDR</t>
+  </si>
+  <si>
+    <t>GDR골프</t>
+  </si>
+  <si>
+    <t>골프2인플레이</t>
+  </si>
+  <si>
+    <t>드라이버연습기</t>
+  </si>
+  <si>
+    <t>골프강습</t>
+  </si>
+  <si>
+    <t>드라이버스윙연습기</t>
+  </si>
+  <si>
+    <t>어린이골프</t>
+  </si>
+  <si>
+    <t>골프입문</t>
+  </si>
+  <si>
+    <t>아이언치는법</t>
+  </si>
+  <si>
+    <t>골프배우기</t>
+  </si>
+  <si>
+    <t>골프장비</t>
+  </si>
+  <si>
+    <t>골프비거리</t>
+  </si>
+  <si>
+    <t>골프스윙기</t>
+  </si>
+  <si>
+    <t>개인골프연습장</t>
+  </si>
+  <si>
+    <t>광화문골프레슨</t>
+  </si>
+  <si>
+    <t>포화도 50%</t>
+  </si>
+  <si>
+    <t>잠실골프레슨</t>
+  </si>
+  <si>
+    <t>드라이버자세</t>
+  </si>
+  <si>
+    <t>골프초보</t>
+  </si>
+  <si>
+    <t>골프피팅교육</t>
+  </si>
+  <si>
+    <t>포화도 60%</t>
+  </si>
+  <si>
+    <t>골프연습장비용</t>
+  </si>
+  <si>
+    <t>대치동골프연습장</t>
+  </si>
+  <si>
+    <t>골프피트니스</t>
+  </si>
+  <si>
+    <t>골프초보레슨</t>
+  </si>
+  <si>
+    <t>골프기초</t>
+  </si>
+  <si>
+    <t>스크린골프레슨</t>
+  </si>
+  <si>
+    <t>골프연습장비</t>
+  </si>
+  <si>
+    <t>골프학원</t>
+  </si>
+  <si>
+    <t>골프숏게임</t>
+  </si>
+  <si>
+    <t>아이언그립잡는법</t>
+  </si>
+  <si>
+    <t>골프드라이버스윙</t>
+  </si>
+  <si>
+    <t>골프잘치는법</t>
+  </si>
+  <si>
+    <t>구미골프</t>
+  </si>
+  <si>
+    <t>스크린골프비용</t>
+  </si>
+  <si>
+    <t>실내골프</t>
+  </si>
+  <si>
+    <t>골프원포인트레슨</t>
+  </si>
+  <si>
+    <t>아이언피팅</t>
+  </si>
+  <si>
+    <t>드라이버피팅</t>
+  </si>
+  <si>
+    <t>골프연습용품</t>
+  </si>
+  <si>
+    <t>골프시작</t>
+  </si>
+  <si>
+    <t>골프연습장가격</t>
+  </si>
+  <si>
+    <t>골프실내연습장</t>
+  </si>
+  <si>
+    <t>집에서골프연습</t>
+  </si>
+  <si>
+    <t>실내골프장</t>
+  </si>
+  <si>
+    <t>골프트레이닝</t>
+  </si>
+  <si>
+    <t>미국골프</t>
+  </si>
+  <si>
+    <t>퍼터레슨</t>
+  </si>
+  <si>
+    <t>실내스윙연습기</t>
+  </si>
+  <si>
+    <t>포화도 70%</t>
+  </si>
+  <si>
+    <t>스윙연습</t>
+  </si>
+  <si>
+    <t>구미골프레슨</t>
+  </si>
+  <si>
+    <t>골프PT</t>
+  </si>
+  <si>
+    <t>골프게임칩</t>
+  </si>
+  <si>
+    <t>퍼팅라인</t>
+  </si>
+  <si>
+    <t>파3골프장추천</t>
+  </si>
+  <si>
+    <t>퍼터잘하는법</t>
+  </si>
+  <si>
+    <t>퍼팅연습장</t>
+  </si>
+  <si>
+    <t>골프파3</t>
+  </si>
+  <si>
+    <t>드라이버파3</t>
+  </si>
+  <si>
+    <t>경기도파3</t>
+  </si>
+  <si>
+    <t>양주파3골프장</t>
+  </si>
+  <si>
+    <t>파3골프연습장</t>
+  </si>
+  <si>
+    <t>골프손목아대</t>
+  </si>
+  <si>
+    <t>골프연습채</t>
+  </si>
+  <si>
+    <t>골프교정기</t>
+  </si>
+  <si>
+    <t>목동골프</t>
+  </si>
+  <si>
+    <t>부산골프</t>
+  </si>
+  <si>
+    <t>골프여행사</t>
+  </si>
+  <si>
+    <t>골프머리올리기</t>
+  </si>
+  <si>
+    <t>강서구골프연습장</t>
+  </si>
+  <si>
+    <t>실내골프연습</t>
+  </si>
+  <si>
+    <t>필드예약</t>
+  </si>
+  <si>
+    <t>강남골프</t>
+  </si>
+  <si>
+    <t>스윙트레이너</t>
+  </si>
+  <si>
+    <t>스윙연습도구</t>
+  </si>
+  <si>
+    <t>얼라인먼트스틱</t>
+  </si>
+  <si>
+    <t>비거리로프</t>
+  </si>
+  <si>
+    <t>골프로프</t>
+  </si>
+  <si>
+    <t>실내골프연습기</t>
+  </si>
+  <si>
+    <t>마곡골프연습장</t>
+  </si>
+  <si>
+    <t>해운대골프연습장</t>
+  </si>
+  <si>
+    <t>해외골프투어</t>
+  </si>
+  <si>
+    <t>서울근교파3</t>
+  </si>
+  <si>
+    <t>스윙교정기</t>
+  </si>
+  <si>
+    <t>강남역골프레슨</t>
+  </si>
+  <si>
+    <t>골프스윙밴드</t>
+  </si>
+  <si>
+    <t>문정동골프연습장</t>
+  </si>
+  <si>
+    <t>레슨북</t>
+  </si>
+  <si>
+    <t>치킨윙교정기</t>
+  </si>
+  <si>
+    <t>김포골프레슨</t>
+  </si>
+  <si>
+    <t>마포골프</t>
+  </si>
+  <si>
+    <t>드라이버레슨</t>
+  </si>
+  <si>
+    <t>센텀골프레슨</t>
+  </si>
+  <si>
+    <t>가산골프연습장</t>
+  </si>
+  <si>
+    <t>골프스크린연습장</t>
+  </si>
+  <si>
+    <t>가락동골프레슨</t>
+  </si>
+  <si>
+    <t>골프밴드</t>
+  </si>
+  <si>
+    <t>스크린골프장가격</t>
+  </si>
+  <si>
+    <t>1인골프여행</t>
+  </si>
+  <si>
+    <t>1인골프</t>
+  </si>
+  <si>
+    <t>미사골프</t>
+  </si>
+  <si>
+    <t>스윙분석기</t>
+  </si>
+  <si>
+    <t>골프연습스윙기</t>
+  </si>
+  <si>
+    <t>마포골프레슨</t>
+  </si>
+  <si>
+    <t>차쉬넬거리측정기</t>
+  </si>
+  <si>
+    <t>김포골프연습장</t>
+  </si>
+  <si>
+    <t>목동골프연습장</t>
+  </si>
+  <si>
+    <t>미사골프레슨</t>
+  </si>
+  <si>
+    <t>김포골프</t>
+  </si>
+  <si>
+    <t>세종골프레슨</t>
+  </si>
+  <si>
+    <t>여의도골프레슨</t>
+  </si>
+  <si>
+    <t>중고골프용품</t>
+  </si>
+  <si>
+    <t>안양골프연습장</t>
+  </si>
+  <si>
+    <t>서초골프연습장</t>
+  </si>
+  <si>
+    <t>골프잔디매트</t>
+  </si>
+  <si>
+    <t>부산골프레슨</t>
+  </si>
+  <si>
     <t>골프뿌시기</t>
-  </si>
-  <si>
-    <t>골프캠프</t>
-  </si>
-  <si>
-    <t>저렴한골프장</t>
-  </si>
-  <si>
-    <t>골프전지훈련</t>
-  </si>
-  <si>
-    <t>포화도 80%</t>
-  </si>
-  <si>
-    <t>골프필드레슨</t>
-  </si>
-  <si>
-    <t>골프장가격</t>
-  </si>
-  <si>
-    <t>100%+</t>
-  </si>
-  <si>
-    <t>과포화 (0일 경과)</t>
-  </si>
-  <si>
-    <t>골프타석매트</t>
-  </si>
-  <si>
-    <t>포화도 90%</t>
-  </si>
-  <si>
-    <t>퍼팅레슨</t>
-  </si>
-  <si>
-    <t>골프모임</t>
-  </si>
-  <si>
-    <t>강남골프레슨</t>
-  </si>
-  <si>
-    <t>골프연습기구</t>
-  </si>
-  <si>
-    <t>골프스윙궤도</t>
-  </si>
-  <si>
-    <t>티칭프로</t>
-  </si>
-  <si>
-    <t>광화문골프</t>
-  </si>
-  <si>
-    <t>골프레슨비</t>
-  </si>
-  <si>
-    <t>포화도 40%</t>
-  </si>
-  <si>
-    <t>골프학과</t>
-  </si>
-  <si>
-    <t>영재골프연습장</t>
-  </si>
-  <si>
-    <t>포화도 10%</t>
-  </si>
-  <si>
-    <t>그린피저렴한골프장</t>
-  </si>
-  <si>
-    <t>골프스윙분석기</t>
-  </si>
-  <si>
-    <t>골프사관학교</t>
-  </si>
-  <si>
-    <t>드라이버스윙궤도</t>
-  </si>
-  <si>
-    <t>골프체중이동</t>
-  </si>
-  <si>
-    <t>주니어골프</t>
-  </si>
-  <si>
-    <t>골프스윙연습도구</t>
-  </si>
-  <si>
-    <t>포화도 30%</t>
-  </si>
-  <si>
-    <t>골프자세교정기</t>
-  </si>
-  <si>
-    <t>잠실골프</t>
-  </si>
-  <si>
-    <t>키즈골프</t>
-  </si>
-  <si>
-    <t>강남골프연습장</t>
-  </si>
-  <si>
-    <t>골프존GDR</t>
-  </si>
-  <si>
-    <t>GDR골프</t>
-  </si>
-  <si>
-    <t>골프2인플레이</t>
-  </si>
-  <si>
-    <t>드라이버연습기</t>
-  </si>
-  <si>
-    <t>골프강습</t>
-  </si>
-  <si>
-    <t>드라이버스윙연습기</t>
-  </si>
-  <si>
-    <t>어린이골프</t>
-  </si>
-  <si>
-    <t>골프입문</t>
-  </si>
-  <si>
-    <t>아이언치는법</t>
-  </si>
-  <si>
-    <t>골프배우기</t>
-  </si>
-  <si>
-    <t>골프장비</t>
-  </si>
-  <si>
-    <t>골프비거리</t>
-  </si>
-  <si>
-    <t>골프스윙기</t>
-  </si>
-  <si>
-    <t>개인골프연습장</t>
-  </si>
-  <si>
-    <t>광화문골프레슨</t>
-  </si>
-  <si>
-    <t>포화도 50%</t>
-  </si>
-  <si>
-    <t>잠실골프레슨</t>
-  </si>
-  <si>
-    <t>드라이버자세</t>
-  </si>
-  <si>
-    <t>골프초보</t>
-  </si>
-  <si>
-    <t>골프피팅교육</t>
-  </si>
-  <si>
-    <t>포화도 60%</t>
-  </si>
-  <si>
-    <t>골프연습장비용</t>
-  </si>
-  <si>
-    <t>대치동골프연습장</t>
-  </si>
-  <si>
-    <t>골프피트니스</t>
-  </si>
-  <si>
-    <t>골프초보레슨</t>
-  </si>
-  <si>
-    <t>골프기초</t>
-  </si>
-  <si>
-    <t>스크린골프레슨</t>
-  </si>
-  <si>
-    <t>골프연습장비</t>
-  </si>
-  <si>
-    <t>골프학원</t>
-  </si>
-  <si>
-    <t>골프숏게임</t>
-  </si>
-  <si>
-    <t>아이언그립잡는법</t>
-  </si>
-  <si>
-    <t>골프드라이버스윙</t>
-  </si>
-  <si>
-    <t>골프잘치는법</t>
-  </si>
-  <si>
-    <t>구미골프</t>
-  </si>
-  <si>
-    <t>스크린골프비용</t>
-  </si>
-  <si>
-    <t>실내골프</t>
-  </si>
-  <si>
-    <t>골프원포인트레슨</t>
-  </si>
-  <si>
-    <t>아이언피팅</t>
-  </si>
-  <si>
-    <t>드라이버피팅</t>
-  </si>
-  <si>
-    <t>골프연습용품</t>
-  </si>
-  <si>
-    <t>골프시작</t>
-  </si>
-  <si>
-    <t>골프연습장가격</t>
-  </si>
-  <si>
-    <t>골프실내연습장</t>
-  </si>
-  <si>
-    <t>집에서골프연습</t>
-  </si>
-  <si>
-    <t>실내골프장</t>
-  </si>
-  <si>
-    <t>골프트레이닝</t>
-  </si>
-  <si>
-    <t>미국골프</t>
-  </si>
-  <si>
-    <t>퍼터레슨</t>
-  </si>
-  <si>
-    <t>실내스윙연습기</t>
-  </si>
-  <si>
-    <t>포화도 70%</t>
-  </si>
-  <si>
-    <t>스윙연습</t>
-  </si>
-  <si>
-    <t>구미골프레슨</t>
-  </si>
-  <si>
-    <t>골프PT</t>
-  </si>
-  <si>
-    <t>골프게임칩</t>
-  </si>
-  <si>
-    <t>퍼팅라인</t>
-  </si>
-  <si>
-    <t>파3골프장추천</t>
-  </si>
-  <si>
-    <t>퍼터잘하는법</t>
-  </si>
-  <si>
-    <t>퍼팅연습장</t>
-  </si>
-  <si>
-    <t>골프파3</t>
-  </si>
-  <si>
-    <t>드라이버파3</t>
-  </si>
-  <si>
-    <t>경기도파3</t>
-  </si>
-  <si>
-    <t>양주파3골프장</t>
-  </si>
-  <si>
-    <t>파3골프연습장</t>
-  </si>
-  <si>
-    <t>골프손목아대</t>
-  </si>
-  <si>
-    <t>골프연습채</t>
-  </si>
-  <si>
-    <t>골프교정기</t>
-  </si>
-  <si>
-    <t>목동골프</t>
-  </si>
-  <si>
-    <t>부산골프</t>
-  </si>
-  <si>
-    <t>골프여행사</t>
-  </si>
-  <si>
-    <t>골프머리올리기</t>
-  </si>
-  <si>
-    <t>강서구골프연습장</t>
-  </si>
-  <si>
-    <t>실내골프연습</t>
-  </si>
-  <si>
-    <t>필드예약</t>
-  </si>
-  <si>
-    <t>강남골프</t>
-  </si>
-  <si>
-    <t>스윙트레이너</t>
-  </si>
-  <si>
-    <t>스윙연습도구</t>
-  </si>
-  <si>
-    <t>얼라인먼트스틱</t>
-  </si>
-  <si>
-    <t>비거리로프</t>
-  </si>
-  <si>
-    <t>골프로프</t>
-  </si>
-  <si>
-    <t>실내골프연습기</t>
-  </si>
-  <si>
-    <t>마곡골프연습장</t>
-  </si>
-  <si>
-    <t>해운대골프연습장</t>
-  </si>
-  <si>
-    <t>해외골프투어</t>
-  </si>
-  <si>
-    <t>서울근교파3</t>
-  </si>
-  <si>
-    <t>스윙교정기</t>
-  </si>
-  <si>
-    <t>강남역골프레슨</t>
-  </si>
-  <si>
-    <t>골프스윙밴드</t>
-  </si>
-  <si>
-    <t>문정동골프연습장</t>
-  </si>
-  <si>
-    <t>레슨북</t>
-  </si>
-  <si>
-    <t>치킨윙교정기</t>
-  </si>
-  <si>
-    <t>김포골프레슨</t>
-  </si>
-  <si>
-    <t>마포골프</t>
-  </si>
-  <si>
-    <t>드라이버레슨</t>
-  </si>
-  <si>
-    <t>센텀골프레슨</t>
-  </si>
-  <si>
-    <t>가산골프연습장</t>
-  </si>
-  <si>
-    <t>골프스크린연습장</t>
-  </si>
-  <si>
-    <t>가락동골프레슨</t>
-  </si>
-  <si>
-    <t>골프밴드</t>
-  </si>
-  <si>
-    <t>스크린골프장가격</t>
-  </si>
-  <si>
-    <t>1인골프여행</t>
-  </si>
-  <si>
-    <t>1인골프</t>
-  </si>
-  <si>
-    <t>미사골프</t>
-  </si>
-  <si>
-    <t>스윙분석기</t>
-  </si>
-  <si>
-    <t>골프연습스윙기</t>
-  </si>
-  <si>
-    <t>마포골프레슨</t>
-  </si>
-  <si>
-    <t>차쉬넬거리측정기</t>
-  </si>
-  <si>
-    <t>김포골프연습장</t>
-  </si>
-  <si>
-    <t>목동골프연습장</t>
-  </si>
-  <si>
-    <t>미사골프레슨</t>
-  </si>
-  <si>
-    <t>김포골프</t>
-  </si>
-  <si>
-    <t>세종골프레슨</t>
-  </si>
-  <si>
-    <t>여의도골프레슨</t>
-  </si>
-  <si>
-    <t>중고골프용품</t>
-  </si>
-  <si>
-    <t>안양골프연습장</t>
-  </si>
-  <si>
-    <t>서초골프연습장</t>
-  </si>
-  <si>
-    <t>골프잔디매트</t>
-  </si>
-  <si>
-    <t>부산골프레슨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -892,7 +893,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,7 +926,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -948,7 +949,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -971,7 +972,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -1017,7 +1018,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1040,7 +1041,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1063,7 +1064,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="B8">
         <v>120</v>
@@ -1086,7 +1087,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -1109,7 +1110,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -1132,7 +1133,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -1178,7 +1179,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13">
         <v>160</v>
@@ -1201,7 +1202,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1219,12 +1220,12 @@
         <v>10.1</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1242,12 +1243,12 @@
         <v>13.6</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>40</v>
@@ -1265,12 +1266,12 @@
         <v>13.6</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1288,12 +1289,12 @@
         <v>14.3</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>90</v>
@@ -1311,12 +1312,12 @@
         <v>15.2</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19">
         <v>70</v>
@@ -1334,12 +1335,12 @@
         <v>16.5</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20">
         <v>220</v>
@@ -1357,12 +1358,12 @@
         <v>16.8</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <v>140</v>
@@ -1380,7 +1381,7 @@
         <v>19.2</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,7 +1409,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -1431,7 +1432,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>160</v>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>90</v>
@@ -1477,7 +1478,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26">
         <v>120</v>
@@ -1500,7 +1501,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27">
         <v>140</v>
@@ -1523,7 +1524,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>420</v>
@@ -1546,7 +1547,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29">
         <v>70</v>
@@ -1569,7 +1570,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30">
         <v>150</v>
@@ -1592,7 +1593,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31">
         <v>40</v>
@@ -1610,12 +1611,12 @@
         <v>31.2</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1633,12 +1634,12 @@
         <v>33.4</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>70</v>
@@ -1656,12 +1657,12 @@
         <v>33.5</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>160</v>
@@ -1679,12 +1680,12 @@
         <v>36.200000000000003</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>80</v>
@@ -1702,12 +1703,12 @@
         <v>37.5</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>100</v>
@@ -1725,12 +1726,12 @@
         <v>37.5</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -1748,12 +1749,12 @@
         <v>38.4</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>50</v>
@@ -1771,12 +1772,12 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <v>240</v>
@@ -1794,12 +1795,12 @@
         <v>41.7</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1817,12 +1818,12 @@
         <v>42.1</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1840,12 +1841,12 @@
         <v>42.7</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>70</v>
@@ -1863,12 +1864,12 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -1886,12 +1887,12 @@
         <v>46.1</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>150</v>
@@ -1909,12 +1910,12 @@
         <v>47.6</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>60</v>
@@ -1932,12 +1933,12 @@
         <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>90</v>
@@ -1955,12 +1956,12 @@
         <v>51.7</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -1978,12 +1979,12 @@
         <v>54.9</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2001,12 +2002,12 @@
         <v>60.5</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>60</v>
@@ -2024,12 +2025,12 @@
         <v>62</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <v>450</v>
@@ -2047,12 +2048,12 @@
         <v>67.599999999999994</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51">
         <v>30</v>
@@ -2070,12 +2071,12 @@
         <v>78.099999999999994</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -2093,12 +2094,12 @@
         <v>81.5</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -2116,12 +2117,12 @@
         <v>82.4</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54">
         <v>60</v>
@@ -2139,12 +2140,12 @@
         <v>82.4</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55">
         <v>180</v>
@@ -2162,12 +2163,12 @@
         <v>84.7</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>260</v>
@@ -2185,12 +2186,12 @@
         <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -2208,12 +2209,12 @@
         <v>87.5</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>30</v>
@@ -2231,12 +2232,12 @@
         <v>89.3</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>110</v>
@@ -2254,12 +2255,12 @@
         <v>91.2</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60">
         <v>110</v>
@@ -2277,12 +2278,12 @@
         <v>92.6</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>150</v>
@@ -2300,12 +2301,12 @@
         <v>93.8</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>90</v>
@@ -2323,12 +2324,12 @@
         <v>95.2</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63">
         <v>110</v>
@@ -2346,12 +2347,12 @@
         <v>96.8</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64">
         <v>70</v>
@@ -2369,12 +2370,12 @@
         <v>97.4</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B65">
         <v>160</v>
@@ -2397,7 +2398,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <v>40</v>
@@ -2420,7 +2421,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67">
         <v>150</v>
@@ -2443,7 +2444,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>110</v>
@@ -2466,7 +2467,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69">
         <v>60</v>
@@ -2489,7 +2490,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70">
         <v>30</v>
@@ -2512,7 +2513,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -2535,7 +2536,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72">
         <v>80</v>
@@ -2558,7 +2559,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73">
         <v>90</v>
@@ -2581,7 +2582,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <v>150</v>
@@ -2604,7 +2605,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75">
         <v>190</v>
@@ -2627,7 +2628,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76">
         <v>70</v>
@@ -2650,7 +2651,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77">
         <v>140</v>
@@ -2673,7 +2674,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78">
         <v>50</v>
@@ -2696,7 +2697,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79">
         <v>60</v>
@@ -2719,7 +2720,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80">
         <v>190</v>
@@ -2742,7 +2743,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81">
         <v>70</v>
@@ -2765,7 +2766,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82">
         <v>120</v>
@@ -2788,7 +2789,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83">
         <v>220</v>
@@ -2811,7 +2812,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>60</v>
@@ -2834,7 +2835,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>60</v>
@@ -2857,7 +2858,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B86">
         <v>170</v>
@@ -2903,7 +2904,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -2926,7 +2927,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89">
         <v>120</v>
@@ -2949,7 +2950,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90">
         <v>110</v>
@@ -2972,7 +2973,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -2995,7 +2996,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>110</v>
@@ -3018,7 +3019,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>50</v>
@@ -3041,7 +3042,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94">
         <v>130</v>
@@ -3064,7 +3065,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95">
         <v>70</v>
@@ -3087,7 +3088,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96">
         <v>90</v>
@@ -3110,7 +3111,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>220</v>
@@ -3133,7 +3134,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98">
         <v>70</v>
@@ -3156,7 +3157,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>30</v>
@@ -3202,7 +3203,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101">
         <v>110</v>
@@ -3225,7 +3226,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102">
         <v>110</v>
@@ -3248,7 +3249,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B103">
         <v>80</v>
@@ -3271,7 +3272,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104">
         <v>100</v>
@@ -3294,7 +3295,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105">
         <v>90</v>
@@ -3317,7 +3318,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106">
         <v>80</v>
@@ -3340,7 +3341,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107">
         <v>30</v>
@@ -3363,7 +3364,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B108">
         <v>50</v>
@@ -3386,7 +3387,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>50</v>
@@ -3409,7 +3410,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110">
         <v>80</v>
@@ -3432,7 +3433,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B111">
         <v>120</v>
@@ -3455,7 +3456,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B112">
         <v>80</v>
@@ -3478,7 +3479,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>90</v>
@@ -3501,7 +3502,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B114">
         <v>90</v>
@@ -3524,7 +3525,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B115">
         <v>60</v>
@@ -3547,7 +3548,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>100</v>
@@ -3570,7 +3571,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117">
         <v>80</v>
@@ -3593,7 +3594,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B118">
         <v>50</v>
@@ -3616,7 +3617,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119">
         <v>40</v>
@@ -3639,7 +3640,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B120">
         <v>40</v>
@@ -3662,7 +3663,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B121">
         <v>50</v>
@@ -3685,7 +3686,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B122">
         <v>140</v>
@@ -3697,15 +3698,15 @@
         <v>740</v>
       </c>
       <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
         <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123">
         <v>150</v>
@@ -3717,15 +3718,15 @@
         <v>740</v>
       </c>
       <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
         <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B124">
         <v>70</v>
@@ -3737,15 +3738,15 @@
         <v>210</v>
       </c>
       <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
         <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B125">
         <v>90</v>
@@ -3757,15 +3758,15 @@
         <v>660</v>
       </c>
       <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
         <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B126">
         <v>80</v>
@@ -3777,15 +3778,15 @@
         <v>740</v>
       </c>
       <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
         <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B127">
         <v>180</v>
@@ -3797,15 +3798,15 @@
         <v>690</v>
       </c>
       <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
         <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B128">
         <v>170</v>
@@ -3817,15 +3818,15 @@
         <v>990</v>
       </c>
       <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
         <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B129">
         <v>70</v>
@@ -3837,15 +3838,15 @@
         <v>310</v>
       </c>
       <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
         <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B130">
         <v>160</v>
@@ -3857,15 +3858,15 @@
         <v>730</v>
       </c>
       <c r="F130" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
         <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B131">
         <v>40</v>
@@ -3877,15 +3878,15 @@
         <v>310</v>
       </c>
       <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
         <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B132">
         <v>20</v>
@@ -3897,15 +3898,15 @@
         <v>270</v>
       </c>
       <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
         <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B133">
         <v>130</v>
@@ -3917,15 +3918,15 @@
         <v>370</v>
       </c>
       <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
         <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B134">
         <v>70</v>
@@ -3937,15 +3938,15 @@
         <v>450</v>
       </c>
       <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
         <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B135">
         <v>70</v>
@@ -3957,15 +3958,15 @@
         <v>270</v>
       </c>
       <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
         <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B136">
         <v>50</v>
@@ -3977,15 +3978,15 @@
         <v>350</v>
       </c>
       <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
         <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B137">
         <v>40</v>
@@ -3997,15 +3998,15 @@
         <v>600</v>
       </c>
       <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
         <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B138">
         <v>90</v>
@@ -4017,15 +4018,15 @@
         <v>380</v>
       </c>
       <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
         <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B139">
         <v>40</v>
@@ -4037,15 +4038,15 @@
         <v>260</v>
       </c>
       <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
         <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B140">
         <v>60</v>
@@ -4057,15 +4058,15 @@
         <v>350</v>
       </c>
       <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
         <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B141">
         <v>40</v>
@@ -4077,15 +4078,15 @@
         <v>220</v>
       </c>
       <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
         <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B142">
         <v>120</v>
@@ -4097,15 +4098,15 @@
         <v>530</v>
       </c>
       <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
         <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B143">
         <v>70</v>
@@ -4117,15 +4118,15 @@
         <v>270</v>
       </c>
       <c r="F143" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
         <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144">
         <v>150</v>
@@ -4137,15 +4138,15 @@
         <v>410</v>
       </c>
       <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
         <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B145">
         <v>100</v>
@@ -4157,15 +4158,15 @@
         <v>320</v>
       </c>
       <c r="F145" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" t="s">
         <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146">
         <v>10</v>
@@ -4177,15 +4178,15 @@
         <v>310</v>
       </c>
       <c r="F146" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
         <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>60</v>
@@ -4197,10 +4198,10 @@
         <v>270</v>
       </c>
       <c r="F147" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
         <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
